--- a/Ivanova source data.xlsx
+++ b/Ivanova source data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mendozam/Library/Mobile Documents/com~apple~CloudDocs/Documents/ivanova nat comm/2nd revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcarey/Develop/Mendoza__ReplicationEvolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57952F4-22C1-4B43-A7D1-51A798534567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC14CE3-9730-1F4B-BF67-70D8DF068882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="25400" windowHeight="26740" firstSheet="12" activeTab="15" xr2:uid="{D2721514-58D2-3141-AF15-F76DE67DA8E9}"/>
+    <workbookView xWindow="12880" yWindow="0" windowWidth="25400" windowHeight="21600" firstSheet="12" activeTab="24" xr2:uid="{D2721514-58D2-3141-AF15-F76DE67DA8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="fig1b" sheetId="1" r:id="rId1"/>
@@ -40,17 +40,25 @@
     <sheet name="figS7b" sheetId="22" r:id="rId25"/>
     <sheet name="figS7c" sheetId="23" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="265">
   <si>
     <t>metaphase</t>
   </si>
@@ -776,6 +784,75 @@
   </si>
   <si>
     <t>no EdU (n=20)</t>
+  </si>
+  <si>
+    <t>Cdc14 R1</t>
+  </si>
+  <si>
+    <t>Cdc14 R2</t>
+  </si>
+  <si>
+    <t>Cdc14 R3</t>
+  </si>
+  <si>
+    <t>Cdc15 R1</t>
+  </si>
+  <si>
+    <t>Cdc15 R2</t>
+  </si>
+  <si>
+    <t>Cdc15 R3</t>
+  </si>
+  <si>
+    <t>Dbf2 R1</t>
+  </si>
+  <si>
+    <t>Dbf2 R2</t>
+  </si>
+  <si>
+    <t>Dbf2 R3</t>
+  </si>
+  <si>
+    <t>Tem1 R1</t>
+  </si>
+  <si>
+    <t>Tem1 R2</t>
+  </si>
+  <si>
+    <t>Tem1 R3</t>
+  </si>
+  <si>
+    <t>YOYO in Htb  bridge</t>
+  </si>
+  <si>
+    <t>No YOYO in Htb Bridge</t>
+  </si>
+  <si>
+    <t>%YOYO in DAPI bridge</t>
+  </si>
+  <si>
+    <t>%YOYO in DAPI bridge MEAN</t>
+  </si>
+  <si>
+    <t>%YOYO in DAPI bridge STDEV</t>
+  </si>
+  <si>
+    <t>RAW DATA</t>
+  </si>
+  <si>
+    <t>YOYO bridge</t>
+  </si>
+  <si>
+    <t>No YOYO Bridge</t>
+  </si>
+  <si>
+    <t>%YOYO  bridges</t>
+  </si>
+  <si>
+    <t>%YOYO  bridges MEAN</t>
+  </si>
+  <si>
+    <t>%YOYO  bridges STDEV</t>
   </si>
 </sst>
 </file>
@@ -8040,7 +8117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A409B74F-51C5-D44B-848B-159084C056A9}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
@@ -27839,18 +27916,16 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC41F10-0D8F-F548-A8AD-84A94E2D8058}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="16" t="s">
         <v>43</v>
@@ -27866,7 +27941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>123</v>
       </c>
@@ -27884,7 +27959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>124</v>
       </c>
@@ -27902,7 +27977,7 @@
         <v>72.698409999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>125</v>
       </c>
@@ -27918,6 +27993,279 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19">
         <v>3.9010180000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8">
+        <v>72</v>
+      </c>
+      <c r="C8">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>88</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>53</v>
+      </c>
+      <c r="H8">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>51</v>
+      </c>
+      <c r="K8">
+        <v>45</v>
+      </c>
+      <c r="L8">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>47</v>
+      </c>
+      <c r="H9">
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>66</v>
+      </c>
+      <c r="J9">
+        <v>54</v>
+      </c>
+      <c r="K9">
+        <v>56</v>
+      </c>
+      <c r="L9">
+        <v>65</v>
+      </c>
+      <c r="M9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:M10" si="0">SUM(B8:B9)</f>
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:M11" si="1">(B8/B10)*100</f>
+        <v>69.902912621359221</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>83.962264150943398</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>44.554455445544555</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>48.672566371681413</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>49.107142857142854</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>34.653465346534652</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>44.554455445544555</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>36.274509803921568</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>47.115384615384613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(B11:D11)</f>
+        <v>77.478868447910386</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(E11:G11)</f>
+        <v>48.742340605741987</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(H11:J11)</f>
+        <v>44.110678925035359</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE(K11:M11)</f>
+        <v>42.648116621616914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13">
+        <f>STDEV(B11:D11)/SQRT(3)</f>
+        <v>4.0951844515126048</v>
+      </c>
+      <c r="F13">
+        <f>STDEV(E11:G11)/SQRT(3)</f>
+        <v>2.4382683088705299</v>
+      </c>
+      <c r="I13">
+        <f>STDEV(H11:J11)/SQRT(3)</f>
+        <v>4.7311349572455681</v>
+      </c>
+      <c r="L13">
+        <f>STDEV(K11:M11)/SQRT(3)</f>
+        <v>3.2714287120035461</v>
       </c>
     </row>
   </sheetData>
@@ -27927,15 +28275,15 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31956D2-5BDC-3A46-8B8B-6C5DE8CF5234}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="42" t="s">
         <v>117</v>
@@ -27948,7 +28296,7 @@
       </c>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>119</v>
       </c>
@@ -27963,7 +28311,7 @@
       </c>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>120</v>
       </c>
@@ -27978,7 +28326,7 @@
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>122</v>
       </c>
@@ -27992,6 +28340,279 @@
         <v>308</v>
       </c>
       <c r="E4" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" t="s">
+        <v>250</v>
+      </c>
+      <c r="K9" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" t="s">
+        <v>252</v>
+      </c>
+      <c r="M9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>39</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>62</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>57</v>
+      </c>
+      <c r="J11">
+        <v>67</v>
+      </c>
+      <c r="K11">
+        <v>61</v>
+      </c>
+      <c r="L11">
+        <v>62</v>
+      </c>
+      <c r="M11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B10:B11)</f>
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:M12" si="0">SUM(C10:C11)</f>
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13">
+        <f>(B10/B12)*100</f>
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:M13" si="1">(C10/C12)*100</f>
+        <v>74.311926605504581</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>76.699029126213588</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>42.056074766355138</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>43.925233644859816</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>41.17647058823529</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>37.962962962962962</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>39.215686274509807</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>29.629629629629626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(B13:D13)</f>
+        <v>76.003651910572728</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(E13:G13)</f>
+        <v>42.385926333150081</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(H13:J13)</f>
+        <v>40.320987654320987</v>
+      </c>
+      <c r="L14">
+        <f>AVERAGE(K13:M13)</f>
+        <v>35.948438634713142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15">
+        <f>STDEV(B13:D13)/SQRT(3)</f>
+        <v>0.85031303011946968</v>
+      </c>
+      <c r="F15">
+        <f>STDEV(E13:G13)/SQRT(3)</f>
+        <v>0.8104579214768568</v>
+      </c>
+      <c r="I15">
+        <f>STDEV(H13:J13)/SQRT(3)</f>
+        <v>1.4628978471730443</v>
+      </c>
+      <c r="L15">
+        <f>STDEV(K13:M13)/SQRT(3)</f>
+        <v>3.1600179627283005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ivanova source data.xlsx
+++ b/Ivanova source data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcarey/Develop/Mendoza__ReplicationEvolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC14CE3-9730-1F4B-BF67-70D8DF068882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74892639-389F-B64C-90E5-7633F37CDA29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="0" windowWidth="25400" windowHeight="21600" firstSheet="12" activeTab="24" xr2:uid="{D2721514-58D2-3141-AF15-F76DE67DA8E9}"/>
+    <workbookView xWindow="2080" yWindow="0" windowWidth="25400" windowHeight="21600" firstSheet="12" activeTab="24" xr2:uid="{D2721514-58D2-3141-AF15-F76DE67DA8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="fig1b" sheetId="1" r:id="rId1"/>
@@ -27918,7 +27918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC41F10-0D8F-F548-A8AD-84A94E2D8058}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28275,10 +28277,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31956D2-5BDC-3A46-8B8B-6C5DE8CF5234}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A5" sqref="A5:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28341,276 +28343,276 @@
       </c>
       <c r="E4" s="24"/>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" t="s">
+        <v>253</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>259</v>
+      <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>39</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" t="s">
-        <v>248</v>
-      </c>
-      <c r="I9" t="s">
-        <v>249</v>
-      </c>
-      <c r="J9" t="s">
-        <v>250</v>
-      </c>
-      <c r="K9" t="s">
-        <v>251</v>
-      </c>
-      <c r="L9" t="s">
-        <v>252</v>
-      </c>
-      <c r="M9" t="s">
-        <v>253</v>
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>57</v>
+      </c>
+      <c r="J9">
+        <v>67</v>
+      </c>
+      <c r="K9">
+        <v>61</v>
+      </c>
+      <c r="L9">
+        <v>62</v>
+      </c>
+      <c r="M9">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <f>SUM(B8:B9)</f>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>81</v>
+        <f t="shared" ref="C10:M10" si="0">SUM(C8:C9)</f>
+        <v>109</v>
       </c>
       <c r="D10">
-        <v>79</v>
+        <f t="shared" si="0"/>
+        <v>103</v>
       </c>
       <c r="E10">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>107</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>107</v>
       </c>
       <c r="G10">
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="I10">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
       <c r="K10">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <f>(B8/B10)*100</f>
+        <v>77</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <f t="shared" ref="C11:M11" si="1">(C8/C10)*100</f>
+        <v>74.311926605504581</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>76.699029126213588</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>42.056074766355138</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>43.925233644859816</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>41.17647058823529</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="J11">
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>37.962962962962962</v>
       </c>
       <c r="K11">
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="L11">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>39.215686274509807</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>29.629629629629626</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12">
-        <f>SUM(B10:B11)</f>
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:M12" si="0">SUM(C10:C11)</f>
-        <v>109</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>107</v>
+        <f>AVERAGE(B11:D11)</f>
+        <v>76.003651910572728</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>AVERAGE(E11:G11)</f>
+        <v>42.385926333150081</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>AVERAGE(H11:J11)</f>
+        <v>40.320987654320987</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f>AVERAGE(K11:M11)</f>
+        <v>35.948438634713142</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13">
-        <f>(B10/B12)*100</f>
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:M13" si="1">(C10/C12)*100</f>
-        <v>74.311926605504581</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>76.699029126213588</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>42.056074766355138</v>
+        <f>STDEV(B11:D11)/SQRT(3)</f>
+        <v>0.85031303011946968</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>43.925233644859816</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>41.17647058823529</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>STDEV(E11:G11)/SQRT(3)</f>
+        <v>0.8104579214768568</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>37.962962962962962</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f>STDEV(H11:J11)/SQRT(3)</f>
+        <v>1.4628978471730443</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
-        <v>39.215686274509807</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>29.629629629629626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14">
-        <f>AVERAGE(B13:D13)</f>
-        <v>76.003651910572728</v>
-      </c>
-      <c r="F14">
-        <f>AVERAGE(E13:G13)</f>
-        <v>42.385926333150081</v>
-      </c>
-      <c r="I14">
-        <f>AVERAGE(H13:J13)</f>
-        <v>40.320987654320987</v>
-      </c>
-      <c r="L14">
-        <f>AVERAGE(K13:M13)</f>
-        <v>35.948438634713142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15">
-        <f>STDEV(B13:D13)/SQRT(3)</f>
-        <v>0.85031303011946968</v>
-      </c>
-      <c r="F15">
-        <f>STDEV(E13:G13)/SQRT(3)</f>
-        <v>0.8104579214768568</v>
-      </c>
-      <c r="I15">
-        <f>STDEV(H13:J13)/SQRT(3)</f>
-        <v>1.4628978471730443</v>
-      </c>
-      <c r="L15">
-        <f>STDEV(K13:M13)/SQRT(3)</f>
+        <f>STDEV(K11:M11)/SQRT(3)</f>
         <v>3.1600179627283005</v>
       </c>
     </row>
